--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1201,83 +1201,83 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>10</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>11</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>13</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>14</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>15</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>16</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>9</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>17</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>9</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>18</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>15</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>0</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>15</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>15</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>2</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>15</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,59 +1225,59 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
